--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
   </si>
   <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+    <t>This is a metadata field from [XDS/MHD](https://profiles.ihe.net/ITI/MHD/index.html).</t>
   </si>
   <si>
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -520,7 +520,7 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -595,7 +595,7 @@
     <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
   </si>
   <si>
-    <t>This is a metadata field from [XDS/MHD](https://profiles.ihe.net/ITI/MHD/index.html).</t>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
   </si>
   <si>
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
@@ -796,7 +796,7 @@
     <t>Codes specifying the level of confidentiality of the composition.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-Confidentiality|2.0.0|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-Confidentiality|2.0.0</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -1222,7 +1222,7 @@
     <t>The processing mode that applies to this section.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -1771,7 +1771,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.0078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,8 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Clinical document used to represent the Electronic Product Information (ePI) data set. 
-An Electronic Product Information (ePI) document is an authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+    <t>This profile provides an example of how the Composition (ePI) profile can be specialized to represent a Product information Leaflet withi a specific jurisdiction</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -631,11 +630,11 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/RegulatedAuthorization-uv-epi)
+    <t xml:space="preserve">Reference(List)
 </t>
   </si>
   <si>
-    <t>Who and/or what the composition is about</t>
+    <t>What the composition is about</t>
   </si>
   <si>
     <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
@@ -3407,7 +3406,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1747,43 +1747,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="73.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.17578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Composition-eu-leaflet.xlsx
+++ b/StructureDefinition-Composition-eu-leaflet.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
